--- a/data/outputs/数学期刊(下)_altmetric/46Journal of Fixed Point Theory and Applications.xlsx
+++ b/data/outputs/数学期刊(下)_altmetric/46Journal of Fixed Point Theory and Applications.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CE52"/>
+  <dimension ref="A1:CF52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -782,6 +782,11 @@
           <t>citeulike</t>
         </is>
       </c>
+      <c r="CF1" s="1" t="inlineStr">
+        <is>
+          <t>altmetric_score</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1031,6 +1036,9 @@
       <c r="CE2" t="n">
         <v>0</v>
       </c>
+      <c r="CF2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1280,6 +1288,9 @@
       <c r="CE3" t="n">
         <v>0</v>
       </c>
+      <c r="CF3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1533,6 +1544,9 @@
       <c r="CE4" t="n">
         <v>0</v>
       </c>
+      <c r="CF4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1788,6 +1802,9 @@
         <v>0</v>
       </c>
       <c r="CE5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2033,6 +2050,9 @@
       <c r="CE6" t="n">
         <v>0</v>
       </c>
+      <c r="CF6" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2286,6 +2306,9 @@
       <c r="CE7" t="n">
         <v>0</v>
       </c>
+      <c r="CF7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2535,6 +2558,9 @@
       <c r="CE8" t="n">
         <v>0</v>
       </c>
+      <c r="CF8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2784,6 +2810,9 @@
       <c r="CE9" t="n">
         <v>0</v>
       </c>
+      <c r="CF9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -3041,6 +3070,9 @@
       <c r="CE10" t="n">
         <v>0</v>
       </c>
+      <c r="CF10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -3298,6 +3330,9 @@
       <c r="CE11" t="n">
         <v>0</v>
       </c>
+      <c r="CF11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3555,6 +3590,9 @@
       <c r="CE12" t="n">
         <v>0</v>
       </c>
+      <c r="CF12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3800,6 +3838,9 @@
       <c r="CE13" t="n">
         <v>0</v>
       </c>
+      <c r="CF13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -4039,6 +4080,9 @@
         <v>0</v>
       </c>
       <c r="CE14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4278,6 +4322,9 @@
       <c r="CE15" t="n">
         <v>0</v>
       </c>
+      <c r="CF15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -4525,6 +4572,9 @@
         <v>0</v>
       </c>
       <c r="CE16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4768,6 +4818,9 @@
       <c r="CE17" t="n">
         <v>0</v>
       </c>
+      <c r="CF17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -5015,6 +5068,9 @@
         <v>0</v>
       </c>
       <c r="CE18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5258,6 +5314,9 @@
       <c r="CE19" t="n">
         <v>0</v>
       </c>
+      <c r="CF19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -5501,6 +5560,9 @@
         <v>0</v>
       </c>
       <c r="CE20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5744,6 +5806,9 @@
       <c r="CE21" t="n">
         <v>0</v>
       </c>
+      <c r="CF21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5989,6 +6054,9 @@
       <c r="CE22" t="n">
         <v>0</v>
       </c>
+      <c r="CF22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -6235,6 +6303,9 @@
       </c>
       <c r="CE23" t="n">
         <v>0</v>
+      </c>
+      <c r="CF23" t="n">
+        <v>0.25</v>
       </c>
     </row>
     <row r="24">
@@ -6477,6 +6548,9 @@
       <c r="CE24" t="n">
         <v>0</v>
       </c>
+      <c r="CF24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -6722,6 +6796,9 @@
       <c r="CE25" t="n">
         <v>0</v>
       </c>
+      <c r="CF25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -6969,6 +7046,9 @@
         <v>0</v>
       </c>
       <c r="CE26" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF26" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7212,6 +7292,9 @@
       <c r="CE27" t="n">
         <v>0</v>
       </c>
+      <c r="CF27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -7463,6 +7546,9 @@
       <c r="CE28" t="n">
         <v>0</v>
       </c>
+      <c r="CF28" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -7718,6 +7804,9 @@
       <c r="CE29" t="n">
         <v>0</v>
       </c>
+      <c r="CF29" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -7979,6 +8068,9 @@
       <c r="CE30" t="n">
         <v>0</v>
       </c>
+      <c r="CF30" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -8224,6 +8316,9 @@
       <c r="CE31" t="n">
         <v>0</v>
       </c>
+      <c r="CF31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -8467,6 +8562,9 @@
         <v>0</v>
       </c>
       <c r="CE32" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF32" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8710,6 +8808,9 @@
       <c r="CE33" t="n">
         <v>0</v>
       </c>
+      <c r="CF33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -8960,6 +9061,9 @@
       </c>
       <c r="CE34" t="n">
         <v>0</v>
+      </c>
+      <c r="CF34" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="35">
@@ -9202,6 +9306,9 @@
       <c r="CE35" t="n">
         <v>0</v>
       </c>
+      <c r="CF35" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -9443,6 +9550,9 @@
       <c r="CE36" t="n">
         <v>0</v>
       </c>
+      <c r="CF36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -9688,6 +9798,9 @@
       <c r="CE37" t="n">
         <v>0</v>
       </c>
+      <c r="CF37" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -9935,6 +10048,9 @@
         <v>0</v>
       </c>
       <c r="CE38" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF38" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10178,6 +10294,9 @@
       <c r="CE39" t="n">
         <v>0</v>
       </c>
+      <c r="CF39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -10420,6 +10539,9 @@
       </c>
       <c r="CE40" t="n">
         <v>0</v>
+      </c>
+      <c r="CF40" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="41">
@@ -10654,6 +10776,9 @@
       <c r="CE41" t="n">
         <v>0</v>
       </c>
+      <c r="CF41" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -10895,6 +11020,9 @@
       <c r="CE42" t="n">
         <v>0</v>
       </c>
+      <c r="CF42" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -11146,6 +11274,9 @@
       <c r="CE43" t="n">
         <v>0</v>
       </c>
+      <c r="CF43" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -11395,6 +11526,9 @@
       <c r="CE44" t="n">
         <v>0</v>
       </c>
+      <c r="CF44" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -11652,6 +11786,9 @@
       <c r="CE45" t="n">
         <v>0</v>
       </c>
+      <c r="CF45" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -11905,6 +12042,9 @@
       <c r="CE46" t="n">
         <v>0</v>
       </c>
+      <c r="CF46" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -12148,6 +12288,9 @@
         <v>0</v>
       </c>
       <c r="CE47" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF47" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12391,6 +12534,9 @@
       <c r="CE48" t="n">
         <v>0</v>
       </c>
+      <c r="CF48" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -12626,6 +12772,9 @@
         <v>0</v>
       </c>
       <c r="CE49" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF49" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12849,6 +12998,9 @@
       <c r="CE50" t="n">
         <v>0</v>
       </c>
+      <c r="CF50" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -13098,6 +13250,9 @@
       <c r="CE51" t="n">
         <v>0</v>
       </c>
+      <c r="CF51" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -13347,6 +13502,9 @@
       <c r="CE52" t="n">
         <v>0</v>
       </c>
+      <c r="CF52" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
